--- a/受け入れテスト条件.xlsx
+++ b/受け入れテスト条件.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$I$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$I$55</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>ストーリー名称</t>
     <rPh sb="5" eb="7">
@@ -157,19 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>左クリックしたマスが開くことを確認する</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左クリックしたマスに何も変化がないことを確認する</t>
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
@@ -238,50 +225,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム失敗   　：ゲーム中にネコマスを開き、画面に失敗が表示された状態</t>
-    <rPh sb="3" eb="5">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームクリア 　：ネコ以外のすべてのマスを開き、画面にクリアが表示されている状態</t>
-    <rPh sb="11" eb="13">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム中　　  　：初期画面から、任意のマスを左クリックし、ゲームがスタートしている状態</t>
     <rPh sb="3" eb="4">
       <t>チュウ</t>
@@ -442,28 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期状態、ゲーム中において9×9のボード内の4隅のマスを左クリックする</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期状態において、9×9のボード上の任意のマスを左クリックする</t>
     <rPh sb="0" eb="2">
       <t>ショキ</t>
@@ -474,35 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残念のポップアップが表示され、タイマーがストップし、ネコ位置が表示されることを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ザンネン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリアのポップアップが表示され、タイマーがストップすることを確認する</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームが続行することを確認する</t>
     <rPh sb="4" eb="6">
       <t>ゾッコウ</t>
@@ -625,19 +517,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残念のポップアップが表示されることを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ザンネン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　開いたマスがネコの場合</t>
     <rPh sb="2" eb="3">
       <t>ヒラ</t>
@@ -652,19 +531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残念のポップアップが表示されないことを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ザンネン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　ネコ数＝残りマス数の場合</t>
     <rPh sb="4" eb="5">
       <t>スウ</t>
@@ -697,58 +563,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリアのポップアップが表示されることを確認する</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリアのポップアップが表示されないことを確認する</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネコの初期位置が表示されることを確認する</t>
-    <rPh sb="3" eb="5">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネコの初期位置が表示されるないことを確認する</t>
-    <rPh sb="3" eb="5">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期状態に戻ることを確認する</t>
     <rPh sb="0" eb="2">
       <t>ショキ</t>
@@ -956,19 +770,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全状態でヘルプボタンを左クリックする</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期状態でModeボタンを左クリックする</t>
     <rPh sb="0" eb="2">
       <t>ショキ</t>
@@ -1093,6 +894,301 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア 　：ネコ以外のすべてのマスを開き、画面にクリアの画像が表示されている状態</t>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム失敗   　：ゲーム中にネコマスを開き、画面に失敗の画像が表示された状態</t>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリックしたマスが開き、空白、数字、猫のいずれかが表示されることを確認する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリックしたマスが開き、空白もしくは数字のいずれかが表示されることを確認する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残念の画像が表示され、タイマーがストップし、ネコ位置が表示されることを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ザンネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアの画像が表示され、タイマーがストップすることを確認する</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残念の画像が表示されることを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ザンネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残念の画像が表示されないことを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ザンネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアの画像が表示されることを確認する</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアの画像が表示されないことを確認する</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ゲーム状態でヘルプボタンを左クリックする</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルプ画面において、Closeボタンを左クリックする</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルプ画面が閉じられることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのネコの位置が表示されることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期状態において9×9のボード内の4隅のマスを左クリックする</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中において9×9のボード内の4隅のマスを左クリックする</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリックしたマスが開き、空白もしくは数字のいずれかが表示されることことを確認する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのネコの位置が表示されないことを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリックしたマスが開き、空白もしくは数字のいずれかが表示されること</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1118,7 +1214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,6 +1230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,7 +1306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,10 +1331,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1539,15 +1656,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C3:G51"/>
+  <dimension ref="C3:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.625" style="1"/>
     <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="79" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
@@ -1556,7 +1675,7 @@
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.15">
@@ -1566,27 +1685,27 @@
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.15">
@@ -1603,173 +1722,169 @@
         <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C17" s="8"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="3:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1777,314 +1892,338 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C29" s="7">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C30" s="8">
         <v>4</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
       <c r="E30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="7">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C33" s="8">
         <v>5</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
       <c r="E33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C35" s="7">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C36" s="8">
         <v>6</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
       <c r="E36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C39" s="6">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C40" s="11">
+        <v>8</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C44" s="11">
+        <v>9</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C38" s="6">
-        <v>7</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C39" s="7">
-        <v>8</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C48" s="8">
+        <v>10</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C50" s="11">
+        <v>11</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="F50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="2" t="s">
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="2" t="s">
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C43" s="7">
-        <v>9</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C47" s="6">
-        <v>10</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C48" s="7">
-        <v>11</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" s="2"/>
+      <c r="G53" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="D19:D28"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="C39:C42"/>
+  <mergeCells count="18">
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D21:D29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/受け入れテスト条件.xlsx
+++ b/受け入れテスト条件.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$I$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$I$43</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>ストーリー名称</t>
     <rPh sb="5" eb="7">
@@ -95,29 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残りマス数の表示</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間計測</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヘルプ画面</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -125,18 +102,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>難易度</t>
-    <rPh sb="0" eb="3">
-      <t>ナンイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストケース</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -247,52 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>左クリックしたマスにはネコ以外のマスが割り当てられ、それ以外のマスには規定数のネコ、それに伴う数字、空白が割り当てられていることを、ゲームをクリアすることで確認する</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>キテイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>トモナ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ソラ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム中に、旗の立っていないマスを左クリックする</t>
     <rPh sb="3" eb="4">
       <t>チュウ</t>
@@ -592,171 +512,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期状態</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残りマス数(ネコ)以外のマスが表示されることを確認する</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残りマス数(ネコ)以外のマスが減少することを確認する</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ゲンショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全状態で任意のマスを右クリックする</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残りマス数(ネコ)以外のマスが変化しないことを確認する</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全状態で9×9のボード外で左クリックする</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ソト</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイマーが00:00で停止していることを確認する</t>
-    <rPh sb="11" eb="13">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイマーが動作し始めることを確認する</t>
-    <rPh sb="5" eb="7">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームクリア、ゲーム失敗時</t>
-    <rPh sb="10" eb="12">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイマーが停止することを確認する</t>
-    <rPh sb="5" eb="7">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全状態でリセットボタンを左クリックする</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイマーが00:00に戻ることを確認する</t>
-    <rPh sb="11" eb="12">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポップアップでヘルプ画面が表示されることを確認する</t>
     <rPh sb="10" eb="12">
       <t>ガメン</t>
@@ -770,134 +525,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期状態でModeボタンを左クリックする</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポップアップで難易度選択画面が表示されることを確認する</t>
-    <rPh sb="7" eb="10">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初級が選択され、初期画面に初級が表示されていることを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級が選択され、初期画面に中級が表示されていることを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>チュウキュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チュウキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上級が選択され、初期画面に上級が表示されていることを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　初期状態</t>
-    <rPh sb="2" eb="4">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　中級のラジオボタンを選択する</t>
-    <rPh sb="2" eb="4">
-      <t>チュウキュウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　上級のラジオボタンを選択する</t>
-    <rPh sb="2" eb="4">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームクリア 　：ネコ以外のすべてのマスを開き、画面にクリアの画像が表示されている状態</t>
     <rPh sb="11" eb="13">
       <t>イガイ</t>
@@ -1021,22 +648,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残念の画像が表示されることを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ザンネン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>残念の画像が表示されないことを確認する</t>
     <rPh sb="0" eb="2">
       <t>ザンネン</t>
@@ -1053,19 +664,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリアの画像が表示されることを確認する</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリアの画像が表示されないことを確認する</t>
     <rPh sb="4" eb="6">
       <t>ガゾウ</t>
@@ -1189,6 +787,113 @@
     <t>左クリックしたマスが開き、空白もしくは数字のいずれかが表示されること</t>
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残念の画像が表示され、残念の文字が表示されることを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ザンネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザンネン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアの画像が表示され、クリアの文字が表示されることを確認する</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリックしたマスにはネコ以外のマスが割り当てられ、それ以外のマスには規定数のネコ、それに伴う数字、空白が割り当てられていることを確認する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネコ以外のマスをすべて開き、ゲームをクリアする</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1214,7 +919,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,12 +935,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1316,19 +1015,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,17 +1030,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1656,10 +1340,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C3:G53"/>
+  <dimension ref="C3:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1675,555 +1359,411 @@
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="3:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C30" s="8">
+      <c r="C30" s="5">
         <v>4</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C36" s="8">
+      <c r="C36" s="5">
         <v>6</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C39" s="4">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="2" t="s">
+      <c r="F39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C40" s="5">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C39" s="6">
-        <v>7</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C40" s="11">
-        <v>8</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="12"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="12" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C44" s="11">
-        <v>9</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="12" t="s">
+      <c r="F41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C48" s="8">
-        <v>10</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C50" s="11">
-        <v>11</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" s="12"/>
+      <c r="G41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="C50:C53"/>
+  <mergeCells count="16">
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="D13:D18"/>
     <mergeCell ref="C21:C29"/>
     <mergeCell ref="D21:D29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/受け入れテスト条件.xlsx
+++ b/受け入れテスト条件.xlsx
@@ -613,41 +613,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残念の画像が表示され、タイマーがストップし、ネコ位置が表示されることを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ザンネン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリアの画像が表示され、タイマーがストップすることを確認する</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>残念の画像が表示されないことを確認する</t>
     <rPh sb="0" eb="2">
       <t>ザンネン</t>
@@ -761,29 +726,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>左クリックしたマスが開き、空白もしくは数字のいずれかが表示されることことを確認する</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>すべてのネコの位置が表示されないことを確認する</t>
-    <rPh sb="7" eb="9">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左クリックしたマスが開き、空白もしくは数字のいずれかが表示されること</t>
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
@@ -894,6 +836,64 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリックしたマスが開き、空白もしくは数字のいずれかが表示されることを確認する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残念の画像が表示され、ネコ位置が表示されることを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ザンネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアの画像が表示されることを確認する</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネコの位置が表示されないことを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1022,19 +1022,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1342,9 +1342,7 @@
   </sheetPr>
   <dimension ref="C3:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1400,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>11</v>
@@ -1410,10 +1408,10 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1425,8 +1423,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1436,8 +1434,8 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1445,8 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1458,56 +1456,56 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1516,19 +1514,19 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1536,19 +1534,19 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1558,8 +1556,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1567,16 +1565,16 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1586,8 +1584,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
@@ -1597,10 +1595,10 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C30" s="5">
+      <c r="C30" s="7">
         <v>4</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1610,32 +1608,32 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C33" s="5">
+      <c r="C33" s="7">
         <v>5</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1645,32 +1643,32 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C36" s="5">
+      <c r="C36" s="7">
         <v>6</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1680,24 +1678,24 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G38" s="2"/>
     </row>
@@ -1717,14 +1715,14 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C40" s="5">
+      <c r="C40" s="7">
         <v>8</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>41</v>
@@ -1732,24 +1730,18 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C36:C38"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D30:D32"/>
@@ -1760,6 +1752,12 @@
     <mergeCell ref="D21:D29"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
